--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.3763</v>
+        <v>16.2612</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.7038</v>
+        <v>-12.80810000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>4.835099999999999</v>
+        <v>5.113099999999998</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.937</v>
+        <v>-10.865</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.344999999999995</v>
+        <v>6.377199999999998</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.8321</v>
+        <v>-11.9312</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.0088</v>
+        <v>16.26280000000001</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.6944</v>
+        <v>4.635000000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.895999999999995</v>
+        <v>6.801599999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.9879</v>
+        <v>-11.63350000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.922900000000006</v>
+        <v>8.877599999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,10 +873,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.936500000000006</v>
+        <v>4.394700000000003</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.98450000000001</v>
+        <v>-12.6874</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.488900000000005</v>
+        <v>5.401000000000002</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.0613</v>
+        <v>-12.54919999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.3614</v>
+        <v>16.18989999999999</v>
       </c>
     </row>
     <row r="29">
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.701099999999998</v>
+        <v>4.728499999999998</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.46060000000001</v>
+        <v>-10.58810000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.08420000000001</v>
+        <v>17.05470000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.691500000000005</v>
+        <v>8.649699999999998</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.49999999999999</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="36">
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.077600000000004</v>
+        <v>9.172200000000002</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.6404</v>
+        <v>-12.4782</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,13 +1080,13 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.8507</v>
+        <v>-12.6626</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.64439999999998</v>
+        <v>16.43119999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.18210000000001</v>
+        <v>17.17990000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.71329999999999</v>
+        <v>16.65659999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.564300000000002</v>
+        <v>5.669800000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.60550000000001</v>
+        <v>16.58440000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.9123</v>
+        <v>-12.6058</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.28939999999998</v>
+        <v>16.15019999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5249</v>
+        <v>-11.2442</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.27330000000001</v>
+        <v>17.29330000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.46580000000001</v>
+        <v>-11.3805</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.431</v>
+        <v>16.5122</v>
       </c>
     </row>
     <row r="55">
@@ -1366,10 +1366,10 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.112699999999998</v>
+        <v>6.256299999999998</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.26460000000001</v>
+        <v>-13.90160000000001</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.054899999999992</v>
+        <v>5.262399999999993</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.2356</v>
+        <v>16.2275</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.4546</v>
+        <v>16.2471</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.44730000000001</v>
+        <v>18.75610000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.23150000000002</v>
+        <v>17.20520000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.209799999999998</v>
+        <v>5.830899999999994</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.989</v>
+        <v>-11.3887</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.5513</v>
+        <v>-11.3257</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.3592</v>
+        <v>17.43480000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1723,10 +1723,10 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.430100000000006</v>
+        <v>5.652100000000005</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.5001</v>
+        <v>-12.023</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.8033</v>
+        <v>9.823900000000004</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,13 +1811,13 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.36549999999999</v>
+        <v>-13.26229999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.55159999999999</v>
+        <v>16.8013</v>
       </c>
     </row>
     <row r="82">
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.542700000000001</v>
+        <v>5.528900000000002</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.522099999999996</v>
+        <v>5.658999999999996</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.17260000000001</v>
+        <v>-14.0247</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.35440000000001</v>
+        <v>16.2444</v>
       </c>
     </row>
     <row r="89">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.439199999999999</v>
+        <v>5.619999999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.28970000000001</v>
+        <v>-10.24670000000001</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.36679999999999</v>
+        <v>16.35549999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.459999999999999</v>
+        <v>5.524899999999998</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5953</v>
+        <v>16.58010000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.6345</v>
+        <v>-12.37969999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.0607</v>
+        <v>-12.9943</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
